--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841065.7870876836</v>
+        <v>837863.4380689339</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="C2" t="n">
+        <v>614457.2540377786</v>
+      </c>
+      <c r="D2" t="n">
         <v>614457.2540377788</v>
-      </c>
-      <c r="D2" t="n">
-        <v>614457.2540377787</v>
       </c>
       <c r="E2" t="n">
         <v>171480.8222247954</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="F4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="G4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="H4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="I4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="J4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="K4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="L4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="M4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="N4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="O4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="P4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128957.0087028599</v>
+        <v>128429.6634888134</v>
       </c>
       <c r="C6" t="n">
-        <v>128957.00870286</v>
+        <v>128429.6634888134</v>
       </c>
       <c r="D6" t="n">
-        <v>128957.0087028599</v>
+        <v>128429.6634888137</v>
       </c>
       <c r="E6" t="n">
-        <v>-28627.72240482194</v>
+        <v>-28940.22988381267</v>
       </c>
       <c r="F6" t="n">
-        <v>104472.2775951781</v>
+        <v>104159.7701161873</v>
       </c>
       <c r="G6" t="n">
-        <v>104472.2775951781</v>
+        <v>104159.7701161873</v>
       </c>
       <c r="H6" t="n">
-        <v>104472.2775951781</v>
+        <v>104159.7701161873</v>
       </c>
       <c r="I6" t="n">
-        <v>104472.2775951781</v>
+        <v>104159.7701161873</v>
       </c>
       <c r="J6" t="n">
-        <v>104472.2775951781</v>
+        <v>104159.7701161873</v>
       </c>
       <c r="K6" t="n">
-        <v>104472.2775951781</v>
+        <v>104159.7701161873</v>
       </c>
       <c r="L6" t="n">
-        <v>104472.2775951781</v>
+        <v>104159.7701161873</v>
       </c>
       <c r="M6" t="n">
-        <v>104472.2775951781</v>
+        <v>104159.7701161873</v>
       </c>
       <c r="N6" t="n">
-        <v>104472.2775951781</v>
+        <v>104159.7701161873</v>
       </c>
       <c r="O6" t="n">
-        <v>104472.2775951781</v>
+        <v>104159.7701161873</v>
       </c>
       <c r="P6" t="n">
-        <v>104472.2775951781</v>
+        <v>104159.7701161873</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>837863.4380689339</v>
+        <v>851589.7962063521</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26316,10 @@
         <v>614457.2540377786</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="D2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="E2" t="n">
         <v>171480.8222247954</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26522,13 +26524,13 @@
         <v>128429.6634888134</v>
       </c>
       <c r="C6" t="n">
-        <v>128429.6634888134</v>
+        <v>128429.6634888136</v>
       </c>
       <c r="D6" t="n">
-        <v>128429.6634888137</v>
+        <v>128429.6634888135</v>
       </c>
       <c r="E6" t="n">
-        <v>-28940.22988381267</v>
+        <v>-28940.22988381272</v>
       </c>
       <c r="F6" t="n">
         <v>104159.7701161873</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>851589.7962063521</v>
+        <v>767804.3944447269</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377785</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="D2" t="n">
         <v>614457.2540377787</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128429.6634888134</v>
+        <v>128385.5277101322</v>
       </c>
       <c r="C6" t="n">
-        <v>128429.6634888136</v>
+        <v>128385.5277101324</v>
       </c>
       <c r="D6" t="n">
-        <v>128429.6634888135</v>
+        <v>128385.5277101324</v>
       </c>
       <c r="E6" t="n">
-        <v>-28940.22988381272</v>
+        <v>-43750.24672292663</v>
       </c>
       <c r="F6" t="n">
-        <v>104159.7701161873</v>
+        <v>89349.75327707344</v>
       </c>
       <c r="G6" t="n">
-        <v>104159.7701161873</v>
+        <v>89349.75327707344</v>
       </c>
       <c r="H6" t="n">
-        <v>104159.7701161873</v>
+        <v>89349.75327707344</v>
       </c>
       <c r="I6" t="n">
-        <v>104159.7701161873</v>
+        <v>89349.75327707344</v>
       </c>
       <c r="J6" t="n">
-        <v>104159.7701161873</v>
+        <v>89349.75327707344</v>
       </c>
       <c r="K6" t="n">
-        <v>104159.7701161873</v>
+        <v>89349.75327707344</v>
       </c>
       <c r="L6" t="n">
-        <v>104159.7701161873</v>
+        <v>89349.75327707344</v>
       </c>
       <c r="M6" t="n">
-        <v>104159.7701161873</v>
+        <v>89349.75327707344</v>
       </c>
       <c r="N6" t="n">
-        <v>104159.7701161873</v>
+        <v>89349.75327707344</v>
       </c>
       <c r="O6" t="n">
-        <v>104159.7701161873</v>
+        <v>89349.75327707344</v>
       </c>
       <c r="P6" t="n">
-        <v>104159.7701161873</v>
+        <v>89349.75327707344</v>
       </c>
     </row>
   </sheetData>
